--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,6 +815,46 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>46</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-31T10:24:54</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Aadhava</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000046_Aadhava_USA.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nay</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,6 +855,46 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>47</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-31T11:46:54</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Aadhava</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000047_Aadhava_USA_snapshot.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yay</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>realtime_snapshot</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/submissions.xlsx
+++ b/data/submissions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,6 +895,38 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>48</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-03T13:11:09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Aadhava</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>realtime_video</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
